--- a/academycity/data/training/datasets/excel/upload/112_2_unit_qualifications.xlsx
+++ b/academycity/data/training/datasets/excel/upload/112_2_unit_qualifications.xlsx
@@ -338,7 +338,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I22" activeCellId="0" sqref="I22"/>
+      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -349,8 +349,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="9.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="990" min="8" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="991" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="975" min="8" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="976" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -404,7 +404,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="3" t="n">
         <v>0</v>
@@ -424,7 +424,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="3" t="n">
         <v>0</v>
@@ -441,16 +441,16 @@
         <v>9</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -464,7 +464,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="3" t="n">
         <v>0</v>
@@ -484,7 +484,7 @@
         <v>11</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="3" t="n">
         <v>1</v>
@@ -493,7 +493,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -530,16 +530,16 @@
         <v>2</v>
       </c>
       <c r="D9" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="3" t="n">
         <v>1</v>
       </c>
       <c r="F9" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -553,16 +553,16 @@
         <v>3</v>
       </c>
       <c r="D10" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="3" t="n">
         <v>1</v>
       </c>
       <c r="F10" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -576,16 +576,16 @@
         <v>4</v>
       </c>
       <c r="D11" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="3" t="n">
         <v>1</v>
       </c>
       <c r="F11" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -783,16 +783,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="3" t="n">
         <v>1</v>
       </c>
       <c r="F20" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -806,16 +806,16 @@
         <v>11</v>
       </c>
       <c r="D21" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" s="3" t="n">
         <v>1</v>
       </c>
       <c r="F21" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -829,16 +829,16 @@
         <v>1</v>
       </c>
       <c r="D22" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" s="3" t="n">
         <v>1</v>
       </c>
       <c r="F22" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -852,16 +852,16 @@
         <v>2</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" s="3" t="n">
         <v>1</v>
       </c>
       <c r="F23" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -875,16 +875,16 @@
         <v>3</v>
       </c>
       <c r="D24" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" s="3" t="n">
         <v>1</v>
       </c>
       <c r="F24" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -898,16 +898,16 @@
         <v>4</v>
       </c>
       <c r="D25" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" s="3" t="n">
         <v>1</v>
       </c>
       <c r="F25" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -921,16 +921,16 @@
         <v>16</v>
       </c>
       <c r="D26" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" s="3" t="n">
         <v>1</v>
       </c>
       <c r="F26" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -944,16 +944,16 @@
         <v>4</v>
       </c>
       <c r="D27" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" s="3" t="n">
         <v>1</v>
       </c>
       <c r="F27" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -967,16 +967,16 @@
         <v>17</v>
       </c>
       <c r="D28" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" s="3" t="n">
         <v>1</v>
       </c>
       <c r="F28" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/academycity/data/training/datasets/excel/upload/112_2_unit_qualifications.xlsx
+++ b/academycity/data/training/datasets/excel/upload/112_2_unit_qualifications.xlsx
@@ -338,7 +338,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
+      <selection pane="topLeft" activeCell="J19" activeCellId="0" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -381,10 +381,10 @@
         <v>112</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>0</v>
@@ -484,7 +484,7 @@
         <v>11</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="3" t="n">
         <v>1</v>
